--- a/data/HAP.xlsx
+++ b/data/HAP.xlsx
@@ -32,9 +32,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>iso</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>HAP_2013</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,22 +609,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -632,10 +632,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2">
         <v>98</v>
@@ -655,10 +655,10 @@
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -678,10 +678,10 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4">
         <v>65</v>
@@ -701,10 +701,10 @@
         <v>96</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -724,10 +724,10 @@
         <v>116</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>98</v>
@@ -747,10 +747,10 @@
         <v>120</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
       </c>
       <c r="D7">
         <v>94</v>
@@ -770,10 +770,10 @@
         <v>144</v>
       </c>
       <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
       </c>
       <c r="D8">
         <v>89</v>
@@ -793,10 +793,10 @@
         <v>170</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
       <c r="D9">
         <v>26</v>
@@ -816,10 +816,10 @@
         <v>178</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
       <c r="D10">
         <v>97</v>
@@ -839,10 +839,10 @@
         <v>180</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11">
         <v>98</v>
@@ -862,10 +862,10 @@
         <v>204</v>
       </c>
       <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
       </c>
       <c r="D12">
         <v>98</v>
@@ -885,10 +885,10 @@
         <v>218</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
       <c r="D13">
         <v>27</v>
@@ -908,10 +908,10 @@
         <v>231</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
       </c>
       <c r="D14">
         <v>93</v>
@@ -931,10 +931,10 @@
         <v>232</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -954,10 +954,10 @@
         <v>266</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -977,10 +977,10 @@
         <v>288</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
       </c>
       <c r="D17">
         <v>98</v>
@@ -1000,10 +1000,10 @@
         <v>320</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
       </c>
       <c r="D18">
         <v>64</v>
@@ -1023,10 +1023,10 @@
         <v>332</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
       <c r="D19">
         <v>98</v>
@@ -1046,10 +1046,10 @@
         <v>340</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
       </c>
       <c r="D20">
         <v>68</v>
@@ -1069,10 +1069,10 @@
         <v>356</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
       <c r="D21">
         <v>87</v>
@@ -1092,10 +1092,10 @@
         <v>360</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
       </c>
       <c r="D22">
         <v>67</v>
@@ -1115,10 +1115,10 @@
         <v>384</v>
       </c>
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
       </c>
       <c r="D23">
         <v>87</v>
@@ -1138,10 +1138,10 @@
         <v>388</v>
       </c>
       <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
       </c>
       <c r="D24">
         <v>38</v>
@@ -1161,10 +1161,10 @@
         <v>404</v>
       </c>
       <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
       </c>
       <c r="D25">
         <v>82</v>
@@ -1184,10 +1184,10 @@
         <v>414</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1207,10 +1207,10 @@
         <v>591</v>
       </c>
       <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -1230,10 +1230,10 @@
         <v>604</v>
       </c>
       <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
       </c>
       <c r="D28">
         <v>62</v>
@@ -1253,10 +1253,10 @@
         <v>608</v>
       </c>
       <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
       </c>
       <c r="D29">
         <v>60</v>
@@ -1276,10 +1276,10 @@
         <v>634</v>
       </c>
       <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -1299,10 +1299,10 @@
         <v>682</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1322,10 +1322,10 @@
         <v>686</v>
       </c>
       <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
       </c>
       <c r="D32">
         <v>81</v>
@@ -1345,10 +1345,10 @@
         <v>710</v>
       </c>
       <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
       </c>
       <c r="D33">
         <v>39</v>
@@ -1368,10 +1368,10 @@
         <v>716</v>
       </c>
       <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
         <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
       </c>
       <c r="D34">
         <v>68</v>
@@ -1391,10 +1391,10 @@
         <v>736</v>
       </c>
       <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
       </c>
       <c r="D35">
         <v>98</v>
@@ -1414,10 +1414,10 @@
         <v>748</v>
       </c>
       <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
       </c>
       <c r="D36">
         <v>78</v>
@@ -1437,10 +1437,10 @@
         <v>760</v>
       </c>
       <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
         <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -1460,10 +1460,10 @@
         <v>834</v>
       </c>
       <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
       </c>
       <c r="D38">
         <v>98</v>
@@ -1483,10 +1483,10 @@
         <v>887</v>
       </c>
       <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
       </c>
       <c r="D39">
         <v>48</v>
@@ -1506,10 +1506,10 @@
         <v>894</v>
       </c>
       <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
       </c>
       <c r="D40">
         <v>95</v>
